--- a/biology/Médecine/Hôpital_général_de_référence_de_Kabondo/Hôpital_général_de_référence_de_Kabondo.xlsx
+++ b/biology/Médecine/Hôpital_général_de_référence_de_Kabondo/Hôpital_général_de_référence_de_Kabondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_r%C3%A9f%C3%A9rence_de_Kabondo</t>
+          <t>Hôpital_général_de_référence_de_Kabondo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Hôpital général de référence de Kabondo est un centre de soins de santé public de la ville de Kisangani, desservant les communes Kabondo, Kisangani et Makiso dans la province de la Tshopo en République démocratique du Congo[1]. Sa capacité est de 180 lits dont 150 seulement sont opérationnels[2].
-Il bénéficia d'une ambulance offerte par la Caritas, bureau de Kisangani le 18 novembre 2011[3].
+L’Hôpital général de référence de Kabondo est un centre de soins de santé public de la ville de Kisangani, desservant les communes Kabondo, Kisangani et Makiso dans la province de la Tshopo en République démocratique du Congo. Sa capacité est de 180 lits dont 150 seulement sont opérationnels.
+Il bénéficia d'une ambulance offerte par la Caritas, bureau de Kisangani le 18 novembre 2011.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_r%C3%A9f%C3%A9rence_de_Kabondo</t>
+          <t>Hôpital_général_de_référence_de_Kabondo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_r%C3%A9f%C3%A9rence_de_Kabondo</t>
+          <t>Hôpital_général_de_référence_de_Kabondo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a plusieurs services qui sont regroupés en deux secteurs :
 a. Les services d'hospitalisation qui comprennent :
